--- a/sellers.xlsx
+++ b/sellers.xlsx
@@ -20,33 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Sellers</t>
   </si>
   <si>
-    <t xml:space="preserve">Messages</t>
-  </si>
-  <si>
     <t xml:space="preserve">Urls</t>
   </si>
   <si>
+    <t xml:space="preserve">Params</t>
+  </si>
+  <si>
     <t xml:space="preserve">Seller 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Message to Bracelet Seller(Formattable)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.etsy.com/in-en/listing/1055311502/aquamarine-bracelet-for-women-elegant?ga_order=most_relevant&amp;ga_search_type=all&amp;ga_view_type=gallery&amp;ga_search_query=fashion+jewellery&amp;ref=sc_gallery-1-1&amp;pro=1&amp;frs=1&amp;plkey=407befe61d63a204e780e21936c3537e2cdb93ac%3A1055311502</t>
+    <t xml:space="preserve">https://www.etsy.com/in-en/listing/1315672775/gold-plated-cubic-zirconia-solitaire?click_key=8a93471470be40559457a9f29b8fd2f50f3afd6e%3A1315672775&amp;click_sum=80bd08db&amp;external=1&amp;ref=finds_l-2&amp;frs=1&amp;cns=1&amp;sts=1</t>
   </si>
   <si>
     <t xml:space="preserve">Seller 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Message to Earring Seller</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.etsy.com/in-en/listing/970356039/aaa-tanzanite-studs-earrings-pear-shape?ga_order=most_relevant&amp;ga_search_type=all&amp;ga_view_type=gallery&amp;ga_search_query=fashion+jewellery&amp;ref=sc_gallery-1-2&amp;pro=1&amp;frs=1&amp;sts=1&amp;plkey=610475587dce1159a516a6b090dfef1f6bb4d51b%3A970356039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any Text</t>
   </si>
 </sst>
 </file>
@@ -56,11 +53,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -76,6 +74,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,12 +125,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -146,48 +155,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.etsy.com/in-en/listing/1315672775/gold-plated-cubic-zirconia-solitaire?click_key=8a93471470be40559457a9f29b8fd2f50f3afd6e%3A1315672775&amp;click_sum=80bd08db&amp;external=1&amp;ref=finds_l-2&amp;frs=1&amp;cns=1&amp;sts=1"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/sellers.xlsx
+++ b/sellers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Sellers</t>
   </si>
@@ -34,16 +34,85 @@
     <t xml:space="preserve">Seller 1</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.etsy.com/in-en/listing/985719512/pack-of-10-indian-sweet-boxes-wedding?ga_order=most_relevant&amp;ga_search_type=all&amp;ga_view_type=gallery&amp;ga_search_query=wedding+gifts&amp;ref=sr_gallery-1-10&amp;pro=1&amp;frs=1&amp;organic_search_click=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seller 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/in-en/listing/1080559900/25-x-mix-colors-mehndi-favors-wedding?ga_order=most_relevant&amp;ga_search_type=all&amp;ga_view_type=gallery&amp;ga_search_query=wedding+gifts&amp;ref=sr_gallery-1-17&amp;pro=1&amp;frs=1&amp;organic_search_click=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seller 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/in-en/listing/1236577365/bridesman-proposal-bridesman-pajamas?ga_order=most_relevant&amp;ga_search_type=all&amp;ga_view_type=gallery&amp;ga_search_query=mens+clothing&amp;ref=sc_gallery-1-3&amp;pro=1&amp;frs=1&amp;plkey=25310f6ea1dfb1dcee72d7e159feb721e2dc3c8d%3A1236577365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seller 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.etsy.com/in-en/listing/1315672775/gold-plated-cubic-zirconia-solitaire?click_key=8a93471470be40559457a9f29b8fd2f50f3afd6e%3A1315672775&amp;click_sum=80bd08db&amp;external=1&amp;ref=finds_l-2&amp;frs=1&amp;cns=1&amp;sts=1</t>
   </si>
   <si>
-    <t xml:space="preserve">Seller 2</t>
+    <t xml:space="preserve">Seller 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/in-en/listing/1247358506/bridal-diamond-necklace-round-emerald?ga_order=most_relevant&amp;ga_search_type=all&amp;ga_view_type=gallery&amp;ga_search_query=wedding+gifts&amp;ref=sc_gallery-1-1&amp;pro=1&amp;frs=1&amp;sts=1&amp;plkey=bdf28477aa422e45b7b6bdb0e376e104341c727c%3A1247358506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Param4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hex 0x8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seller 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/in-en/listing/1145498425/kingfisher-blue-wall-plate-medium-single?ga_order=most_relevant&amp;ga_search_type=all&amp;ga_view_type=gallery&amp;ga_search_query=wedding+gifts&amp;ref=sr_gallery-1-7&amp;etp=1&amp;organic_search_click=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seller 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/in-en/listing/1062928087/mens-leather-handmade-mens-stylish?ga_order=most_relevant&amp;ga_search_type=all&amp;ga_view_type=gallery&amp;ga_search_query=mens+clothing&amp;ref=sr_gallery-1-5&amp;pro=1&amp;frs=1&amp;organic_search_click=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seller 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/in-en/listing/1426841776/jute-bags-with-gota-patti-work-for?ga_order=most_relevant&amp;ga_search_type=all&amp;ga_view_type=gallery&amp;ga_search_query=wedding+gifts&amp;ref=sr_gallery-1-15&amp;frs=1&amp;organic_search_click=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seller 9</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.etsy.com/in-en/listing/970356039/aaa-tanzanite-studs-earrings-pear-shape?ga_order=most_relevant&amp;ga_search_type=all&amp;ga_view_type=gallery&amp;ga_search_query=fashion+jewellery&amp;ref=sc_gallery-1-2&amp;pro=1&amp;frs=1&amp;sts=1&amp;plkey=610475587dce1159a516a6b090dfef1f6bb4d51b%3A970356039</t>
   </si>
   <si>
-    <t xml:space="preserve">Any Text</t>
+    <t xml:space="preserve">Seller 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.etsy.com/in-en/listing/1038685480/wall-plate-indian-rajasthani-handpainted?ga_order=most_relevant&amp;ga_search_type=all&amp;ga_view_type=gallery&amp;ga_search_query=wedding+gifts&amp;ref=sr_gallery-1-7&amp;frs=1&amp;etp=1&amp;sts=1&amp;organic_search_click=1</t>
   </si>
 </sst>
 </file>
@@ -53,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -81,6 +150,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -135,6 +210,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -155,10 +234,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -192,16 +271,118 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.etsy.com/in-en/listing/1315672775/gold-plated-cubic-zirconia-solitaire?click_key=8a93471470be40559457a9f29b8fd2f50f3afd6e%3A1315672775&amp;click_sum=80bd08db&amp;external=1&amp;ref=finds_l-2&amp;frs=1&amp;cns=1&amp;sts=1"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.etsy.com/in-en/listing/985719512/pack-of-10-indian-sweet-boxes-wedding?ga_order=most_relevant&amp;ga_search_type=all&amp;ga_view_type=gallery&amp;ga_search_query=wedding+gifts&amp;ref=sr_gallery-1-10&amp;pro=1&amp;frs=1&amp;organic_search_click=1"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.etsy.com/in-en/listing/1080559900/25-x-mix-colors-mehndi-favors-wedding?ga_order=most_relevant&amp;ga_search_type=all&amp;ga_view_type=gallery&amp;ga_search_query=wedding+gifts&amp;ref=sr_gallery-1-17&amp;pro=1&amp;frs=1&amp;organic_search_click=1"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://www.etsy.com/in-en/listing/1315672775/gold-plated-cubic-zirconia-solitaire?click_key=8a93471470be40559457a9f29b8fd2f50f3afd6e%3A1315672775&amp;click_sum=80bd08db&amp;external=1&amp;ref=finds_l-2&amp;frs=1&amp;cns=1&amp;sts=1"/>
+    <hyperlink ref="B8" r:id="rId4" display="https://www.etsy.com/in-en/listing/1062928087/mens-leather-handmade-mens-stylish?ga_order=most_relevant&amp;ga_search_type=all&amp;ga_view_type=gallery&amp;ga_search_query=mens+clothing&amp;ref=sr_gallery-1-5&amp;pro=1&amp;frs=1&amp;organic_search_click=1"/>
+    <hyperlink ref="B10" r:id="rId5" display="https://www.etsy.com/in-en/listing/970356039/aaa-tanzanite-studs-earrings-pear-shape?ga_order=most_relevant&amp;ga_search_type=all&amp;ga_view_type=gallery&amp;ga_search_query=fashion+jewellery&amp;ref=sc_gallery-1-2&amp;pro=1&amp;frs=1&amp;sts=1&amp;plkey=610475587dce1159a516a6b090dfef1f6bb4d51b%3A970356039"/>
+    <hyperlink ref="B11" r:id="rId6" display="https://www.etsy.com/in-en/listing/1038685480/wall-plate-indian-rajasthani-handpainted?ga_order=most_relevant&amp;ga_search_type=all&amp;ga_view_type=gallery&amp;ga_search_query=wedding+gifts&amp;ref=sr_gallery-1-7&amp;frs=1&amp;etp=1&amp;sts=1&amp;organic_search_click=1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
